--- a/DRSERVICE_2025/All_Dr_Service_ELBRIT AURA PROXIMA_Jun-2025.xlsx
+++ b/DRSERVICE_2025/All_Dr_Service_ELBRIT AURA PROXIMA_Jun-2025.xlsx
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">Santhanakrishnan Natarajan(E00960)</t>
   </si>
   <si>
-    <t xml:space="preserve">Vacant_Vaikundam sundaram P(E00778)</t>
+    <t xml:space="preserve">Vaikundam Sundaram P (E01023))</t>
   </si>
   <si>
     <t xml:space="preserve">Marimuthu K(E00886)</t>
@@ -2256,7 +2256,7 @@
     <col min="8" max="8" width="11.43" customWidth="1"/>
     <col min="9" max="9" width="12.43" customWidth="1"/>
     <col min="10" max="10" width="5.29" customWidth="1"/>
-    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="11" max="11" width="29.86" customWidth="1"/>
     <col min="12" max="12" width="22.14" customWidth="1"/>
     <col min="13" max="13" width="10.86" customWidth="1"/>
     <col min="14" max="14" width="14.86" customWidth="1"/>
